--- a/data/Classeur1.xlsx
+++ b/data/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\Projet\figureExcel\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF271D7-8275-48D1-A3CE-27BDD82B1943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CF0E8D-ADEE-4DE8-A37F-F956E40E18D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B4559A22-5CDB-4FE8-B7DC-C0830EEC4EA7}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B4559A22-5CDB-4FE8-B7DC-C0830EEC4EA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>Données 1</t>
   </si>
   <si>
-    <t>Donnée 2</t>
+    <t>Données 2</t>
   </si>
 </sst>
 </file>
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -85,7 +85,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +113,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FDEC1646-7BB0-48B4-8912-59198786428A}" name="Date"/>
     <tableColumn id="2" xr3:uid="{F915B1BD-F118-428E-825C-35A6BC4AA793}" name="Données 1"/>
-    <tableColumn id="3" xr3:uid="{B09EC929-F5F2-4FE5-8B9C-657728FD6BB5}" name="Donnée 2" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{B09EC929-F5F2-4FE5-8B9C-657728FD6BB5}" name="Données 2" dataDxfId="0">
       <calculatedColumnFormula>RANDBETWEEN(0,20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,154 +464,154 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45831</v>
+        <v>45831.000706018516</v>
       </c>
       <c r="B2">
         <v>2.2999999999999998</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:C15" ca="1" si="0">RANDBETWEEN(0,20)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f>A2+0.2</f>
-        <v>45831.199999999997</v>
+        <f t="shared" ref="A3:A15" si="1">A2+0.2</f>
+        <v>45831.200706018513</v>
       </c>
       <c r="B3">
         <v>3.1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A3+0.2</f>
-        <v>45831.399999999994</v>
+        <f t="shared" si="1"/>
+        <v>45831.40070601851</v>
       </c>
       <c r="B4">
         <v>6.1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f>A4+0.2</f>
-        <v>45831.599999999991</v>
+        <f t="shared" si="1"/>
+        <v>45831.600706018507</v>
       </c>
       <c r="B5">
         <v>3.4</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f>A5+0.2</f>
-        <v>45831.799999999988</v>
+        <f t="shared" si="1"/>
+        <v>45831.800706018505</v>
       </c>
       <c r="B6">
         <v>5.7</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f>A6+0.2</f>
-        <v>45831.999999999985</v>
+        <f t="shared" si="1"/>
+        <v>45832.000706018502</v>
       </c>
       <c r="B7">
         <v>3.1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>A7+0.2</f>
-        <v>45832.199999999983</v>
+        <f t="shared" si="1"/>
+        <v>45832.200706018499</v>
       </c>
       <c r="B8">
         <v>5.0999999999999996</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f>A8+0.2</f>
-        <v>45832.39999999998</v>
+        <f t="shared" si="1"/>
+        <v>45832.400706018496</v>
       </c>
       <c r="B9">
         <v>8.1999999999999993</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f>A9+0.2</f>
-        <v>45832.599999999977</v>
+        <f t="shared" si="1"/>
+        <v>45832.600706018493</v>
       </c>
       <c r="B10">
         <v>10.3</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f>A10+0.2</f>
-        <v>45832.799999999974</v>
+        <f t="shared" si="1"/>
+        <v>45832.80070601849</v>
       </c>
       <c r="B11">
         <v>50.2</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A11+0.2</f>
-        <v>45832.999999999971</v>
+        <f t="shared" si="1"/>
+        <v>45833.000706018487</v>
       </c>
       <c r="B12">
         <v>10.6655</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f>A12+0.2</f>
-        <v>45833.199999999968</v>
+        <f t="shared" si="1"/>
+        <v>45833.200706018484</v>
       </c>
       <c r="B13">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
@@ -620,8 +620,8 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f>A13+0.2</f>
-        <v>45833.399999999965</v>
+        <f t="shared" si="1"/>
+        <v>45833.400706018481</v>
       </c>
       <c r="B14">
         <f ca="1">RANDBETWEEN(0,20)</f>
@@ -629,21 +629,21 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f>A14+0.2</f>
-        <v>45833.599999999962</v>
+        <f t="shared" si="1"/>
+        <v>45833.600706018478</v>
       </c>
       <c r="B15">
         <f ca="1">RANDBETWEEN(0,20)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
